--- a/TestData/K_68Bus_SG_IBR.xlsx
+++ b/TestData/K_68Bus_SG_IBR.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-Communication-Isomorphism\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-Communication-Isomorphism\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{836DC4C6-2521-49F1-B15C-61E2B8C9D2F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7F63A85-AEE0-46E4-B185-B54B90FFEABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus" sheetId="1" r:id="rId1"/>
@@ -3298,8 +3298,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34645F5B-1D7A-4323-9AD6-5FF81941CA24}">
   <dimension ref="A1:J70"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" topLeftCell="A53" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F70" sqref="F70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -6740,7 +6740,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9EFCB373-2341-40B6-A375-7BA50357479A}">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>

--- a/TestData/K_68Bus_SG_IBR.xlsx
+++ b/TestData/K_68Bus_SG_IBR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-Communication-Isomorphism\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7F63A85-AEE0-46E4-B185-B54B90FFEABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EA09A9E-D7CE-4589-B4F8-48091B6C3BA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3298,7 +3298,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34645F5B-1D7A-4323-9AD6-5FF81941CA24}">
   <dimension ref="A1:J70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F70" sqref="F70"/>
     </sheetView>
   </sheetViews>

--- a/TestData/K_68Bus_SG_IBR.xlsx
+++ b/TestData/K_68Bus_SG_IBR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-Communication-Isomorphism\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EA09A9E-D7CE-4589-B4F8-48091B6C3BA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AF4BF29-0E69-41AC-B044-92F4D52CCEAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3298,8 +3298,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34645F5B-1D7A-4323-9AD6-5FF81941CA24}">
   <dimension ref="A1:J70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F70" sqref="F70"/>
+    <sheetView tabSelected="1" topLeftCell="A56" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I69" sqref="I69:I70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -3376,7 +3376,7 @@
         <v>10</v>
       </c>
       <c r="I4" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="J4" s="2"/>
     </row>
@@ -3398,7 +3398,7 @@
         <v>10</v>
       </c>
       <c r="I5" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.4">
@@ -3419,7 +3419,7 @@
         <v>10</v>
       </c>
       <c r="I6" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.4">
@@ -3440,7 +3440,7 @@
         <v>10</v>
       </c>
       <c r="I7" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.4">
@@ -3463,7 +3463,7 @@
         <v>10</v>
       </c>
       <c r="I8" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.4">
@@ -3484,7 +3484,7 @@
         <v>10</v>
       </c>
       <c r="I9" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.4">
@@ -3505,7 +3505,7 @@
         <v>10</v>
       </c>
       <c r="I10" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.4">
@@ -3526,7 +3526,7 @@
         <v>10</v>
       </c>
       <c r="I11" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.4">
@@ -3547,7 +3547,7 @@
         <v>10</v>
       </c>
       <c r="I12" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.4">
@@ -3568,7 +3568,7 @@
         <v>10</v>
       </c>
       <c r="I13" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.4">
@@ -3589,7 +3589,7 @@
         <v>10</v>
       </c>
       <c r="I14" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.4">
@@ -3610,7 +3610,7 @@
         <v>10</v>
       </c>
       <c r="I15" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.4">
@@ -3631,7 +3631,7 @@
         <v>10</v>
       </c>
       <c r="I16" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.4">
@@ -3654,7 +3654,7 @@
         <v>10</v>
       </c>
       <c r="I17" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.4">
@@ -3675,7 +3675,7 @@
         <v>10</v>
       </c>
       <c r="I18" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.4">
@@ -3696,7 +3696,7 @@
         <v>10</v>
       </c>
       <c r="I19" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.4">
@@ -3717,7 +3717,7 @@
         <v>10</v>
       </c>
       <c r="I20" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.4">
@@ -3748,7 +3748,7 @@
         <v>10</v>
       </c>
       <c r="I22" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.4">
@@ -3769,7 +3769,7 @@
         <v>10</v>
       </c>
       <c r="I23" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.4">
@@ -3800,7 +3800,7 @@
         <v>10</v>
       </c>
       <c r="I25" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.4">
@@ -3821,7 +3821,7 @@
         <v>10</v>
       </c>
       <c r="I26" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.4">
@@ -3842,7 +3842,7 @@
         <v>10</v>
       </c>
       <c r="I27" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.4">
@@ -3863,7 +3863,7 @@
         <v>10</v>
       </c>
       <c r="I28" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.4">
@@ -3884,7 +3884,7 @@
         <v>10</v>
       </c>
       <c r="I29" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.4">
@@ -3905,7 +3905,7 @@
         <v>10</v>
       </c>
       <c r="I30" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.4">
@@ -3926,7 +3926,7 @@
         <v>10</v>
       </c>
       <c r="I31" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.4">
@@ -3977,7 +3977,7 @@
         <v>10</v>
       </c>
       <c r="I35" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.4">
@@ -3998,7 +3998,7 @@
         <v>10</v>
       </c>
       <c r="I36" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.4">
@@ -4019,7 +4019,7 @@
         <v>10</v>
       </c>
       <c r="I37" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.4">
@@ -4040,7 +4040,7 @@
         <v>10</v>
       </c>
       <c r="I38" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.4">
@@ -4061,7 +4061,7 @@
         <v>10</v>
       </c>
       <c r="I39" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.4">
@@ -4082,7 +4082,7 @@
         <v>10</v>
       </c>
       <c r="I40" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.4">
@@ -4103,7 +4103,7 @@
         <v>10</v>
       </c>
       <c r="I41" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.4">
@@ -4124,7 +4124,7 @@
         <v>10</v>
       </c>
       <c r="I42" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.4">
@@ -4145,7 +4145,7 @@
         <v>10</v>
       </c>
       <c r="I43" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.4">
@@ -4166,7 +4166,7 @@
         <v>10</v>
       </c>
       <c r="I44" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.4">
@@ -4187,7 +4187,7 @@
         <v>10</v>
       </c>
       <c r="I45" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.4">
@@ -4208,7 +4208,7 @@
         <v>10</v>
       </c>
       <c r="I46" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.4">
@@ -4229,7 +4229,7 @@
         <v>10</v>
       </c>
       <c r="I47" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.4">
@@ -4250,7 +4250,7 @@
         <v>10</v>
       </c>
       <c r="I48" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.4">
@@ -4271,7 +4271,7 @@
         <v>10</v>
       </c>
       <c r="I49" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.4">
@@ -4292,7 +4292,7 @@
         <v>10</v>
       </c>
       <c r="I50" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.4">
@@ -4313,7 +4313,7 @@
         <v>10</v>
       </c>
       <c r="I51" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.4">
@@ -4334,7 +4334,7 @@
         <v>10</v>
       </c>
       <c r="I52" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.4">
@@ -4355,7 +4355,7 @@
         <v>10</v>
       </c>
       <c r="I53" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.4">
@@ -4378,7 +4378,7 @@
         <v>10</v>
       </c>
       <c r="I54" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.4">
@@ -4401,7 +4401,7 @@
         <v>10</v>
       </c>
       <c r="I55" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.4">
@@ -4436,7 +4436,7 @@
         <v>10</v>
       </c>
       <c r="I57" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.4">
@@ -4457,7 +4457,7 @@
         <v>10</v>
       </c>
       <c r="I58" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.4">
@@ -4498,7 +4498,7 @@
         <v>10</v>
       </c>
       <c r="I61" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.4">
@@ -4519,7 +4519,7 @@
         <v>10</v>
       </c>
       <c r="I62" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.4">
@@ -4540,7 +4540,7 @@
         <v>10</v>
       </c>
       <c r="I63" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.4">
@@ -4581,7 +4581,7 @@
         <v>10</v>
       </c>
       <c r="I66" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.4">
@@ -4622,7 +4622,7 @@
         <v>10</v>
       </c>
       <c r="I69" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.4">
@@ -4643,7 +4643,7 @@
         <v>10</v>
       </c>
       <c r="I70" s="1">
-        <v>2000</v>
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
